--- a/BrixBank.Data/bin/Debug/netcoreapp3.1/Book1.xlsx
+++ b/BrixBank.Data/bin/Debug/netcoreapp3.1/Book1.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RLemberger\Documents\Brix\FinalProject\BrixBank\BrixBank.Data\bin\Debug\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D974507-7317-482D-86AE-21027103B4B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5152CB0-5D11-4386-ABC7-7A862E79D37E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{56473CEF-7A49-4FFE-81FD-E5745E1F1BAC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Poalim" sheetId="2" r:id="rId1"/>
+    <sheet name="Abc" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,16 +35,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Age&gt;=20</t>
-  </si>
-  <si>
-    <t>Salary&gt;7000</t>
-  </si>
-  <si>
     <t>Citizen==1</t>
   </si>
   <si>
     <t>Salary&gt;=6500=&gt;Manager</t>
+  </si>
+  <si>
+    <t>Age&gt;=18</t>
+  </si>
+  <si>
+    <t>Salary&gt;6900</t>
   </si>
 </sst>
 </file>
@@ -409,22 +409,22 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
